--- a/SRS document group 8.xlsx
+++ b/SRS document group 8.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sprint2\19-11-2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89DD46C-2CBA-4A71-A509-A35DF2291341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -59,25 +68,13 @@
     <t>Raja babu</t>
   </si>
   <si>
-    <t xml:space="preserve">GIT management </t>
-  </si>
-  <si>
     <t>P. Rajyalakshmi</t>
   </si>
   <si>
-    <t>RTM and coding guidelines</t>
-  </si>
-  <si>
     <t>Naveen Gangireddy</t>
   </si>
   <si>
-    <t>HLD and LLD</t>
-  </si>
-  <si>
     <t>Gurajala Rithvik</t>
-  </si>
-  <si>
-    <t>SRS documentation</t>
   </si>
   <si>
     <t>Altran Confidential</t>
@@ -204,92 +201,127 @@
   <si>
     <t xml:space="preserve">provide the server side, upload functionality to upload() the files back to the client. </t>
   </si>
+  <si>
+    <t>Login and  register, client side socket</t>
+  </si>
+  <si>
+    <t>upload, Display files</t>
+  </si>
+  <si>
+    <t>Download, Delete files</t>
+  </si>
+  <si>
+    <t>Database, server side socket</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="15">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="18">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF3333CC"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -297,7 +329,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -319,58 +351,88 @@
     </fill>
   </fills>
   <borders count="13">
-    <border/>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF3333CC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF3333CC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -380,6 +442,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -388,17 +451,22 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -407,205 +475,187 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="58">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -795,151 +845,175 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="D4:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:N19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="4:17" ht="15.75" customHeight="1">
       <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="32" t="s">
         <v>0</v>
       </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="4:17" ht="15.75" customHeight="1">
       <c r="D5" s="1"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="4:17" ht="15.75" customHeight="1">
       <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7">
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
+    <row r="7" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D7" s="4"/>
+      <c r="E7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8">
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
+    <row r="8" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D8" s="4"/>
+      <c r="E8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="12" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9">
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
+    <row r="9" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D9" s="4"/>
+      <c r="E9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="13">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="41">
         <v>0.1</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="39"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10">
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
+    <row r="10" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D10" s="4"/>
+      <c r="E10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="14">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="42">
         <v>0.1</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11">
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
+    <row r="11" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D11" s="4"/>
+      <c r="E11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="12" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="4:17" ht="15.75" customHeight="1">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -955,7 +1029,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="4:17" ht="15.75" customHeight="1">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -971,147 +1045,147 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="4:17" ht="15.75" customHeight="1">
       <c r="D14" s="1"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15">
-      <c r="D15" s="5"/>
-      <c r="E15" s="16" t="s">
+    <row r="15" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="17" t="s">
+      <c r="G15" s="36"/>
+      <c r="H15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="17" t="s">
+      <c r="I15" s="36"/>
+      <c r="J15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="17" t="s">
+      <c r="K15" s="36"/>
+      <c r="L15" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16">
-      <c r="D16" s="5"/>
-      <c r="E16" s="18">
+    <row r="16" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D16" s="4"/>
+      <c r="E16" s="6">
         <v>0.1</v>
       </c>
-      <c r="F16" s="19">
-        <v>44880.0</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="20" t="s">
+      <c r="F16" s="45">
+        <v>44880</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="55"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17">
-      <c r="D17" s="5"/>
-      <c r="E17" s="18">
+    <row r="17" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D17" s="4"/>
+      <c r="E17" s="6">
         <v>0.2</v>
       </c>
-      <c r="F17" s="19">
-        <v>44880.0</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
+      <c r="F17" s="45">
+        <v>44880</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18">
-      <c r="D18" s="5"/>
-      <c r="E18" s="24">
+    <row r="18" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D18" s="4"/>
+      <c r="E18" s="7">
         <v>0.3</v>
       </c>
-      <c r="F18" s="19">
-        <v>44880.0</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
+      <c r="F18" s="45">
+        <v>44880</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19">
-      <c r="D19" s="5"/>
-      <c r="E19" s="24">
+    <row r="19" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D19" s="4"/>
+      <c r="E19" s="7">
         <v>0.4</v>
       </c>
-      <c r="F19" s="19">
-        <v>44880.0</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="8"/>
+      <c r="F19" s="45">
+        <v>44880</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="4:17" ht="15.75" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1127,155 +1201,165 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="4:17" ht="15.75" customHeight="1">
       <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22">
-      <c r="D22" s="5"/>
-      <c r="E22" s="27" t="s">
+    <row r="22" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D22" s="4"/>
+      <c r="E22" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="4:17" ht="15">
+      <c r="D23" s="4"/>
+      <c r="E23" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="4:17" ht="15">
+      <c r="D24" s="4"/>
+      <c r="E24" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="4:17" ht="15">
+      <c r="D25" s="4"/>
+      <c r="E25" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="4:17" ht="15">
+      <c r="D26" s="4"/>
+      <c r="E26" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="5"/>
-      <c r="E23" s="27" t="s">
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="4:17" ht="15">
+      <c r="D27" s="4"/>
+      <c r="E27" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="5"/>
-      <c r="E24" s="27" t="s">
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="4:17" ht="15">
+      <c r="D28" s="4"/>
+      <c r="E28" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="5"/>
-      <c r="E25" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="5"/>
-      <c r="E26" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="5"/>
-      <c r="E27" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="5"/>
-      <c r="E28" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="P28" s="29"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="52"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29">
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="8"/>
+    <row r="29" spans="4:17" ht="15">
+      <c r="D29" s="4"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="36"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="4:17" ht="15">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1293,37 +1377,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E4:N5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:N19"/>
     <mergeCell ref="E27:P27"/>
     <mergeCell ref="E28:P29"/>
     <mergeCell ref="H19:I19"/>
@@ -1333,221 +1386,239 @@
     <mergeCell ref="E24:P24"/>
     <mergeCell ref="E25:P25"/>
     <mergeCell ref="E26:P26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="E4:N5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:P8"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.63"/>
-    <col customWidth="1" min="2" max="2" width="31.13"/>
-    <col customWidth="1" min="3" max="3" width="96.75"/>
-    <col customWidth="1" min="4" max="4" width="59.38"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="96.7109375" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:4" ht="25.5" customHeight="1">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" customHeight="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="32" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="42" customHeight="1" thickBot="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D4" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
+    <row r="5" spans="1:4" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="39"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41" t="s">
+      <c r="C5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="D5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="43" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41" t="s">
+      <c r="C6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="D6" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="66" customHeight="1" thickBot="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47" t="s">
+      <c r="C9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="D9" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48.75" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
+      <c r="C10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="49"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="49"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="46"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="43"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41" t="s">
+      <c r="D10" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="97.5" customHeight="1" thickBot="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="40"/>
-      <c r="B11" s="54" t="s">
+      <c r="D11" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C12" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="40"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="40"/>
-      <c r="B13" s="58" t="s">
+      <c r="D12" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="44" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="57.75" customHeight="1" thickBot="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="40"/>
-      <c r="B14" s="58" t="s">
+      <c r="C13" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="D13" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="C14" s="25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="58" t="s">
+      <c r="D14" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57" customHeight="1" thickBot="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="61"/>
-      <c r="B16" s="58" t="s">
+      <c r="D15" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="61"/>
-      <c r="B17" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="61"/>
-      <c r="B18" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>40</v>
+      <c r="D16" s="30" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>